--- a/pedometer/bmp180/com2level3.xlsx
+++ b/pedometer/bmp180/com2level3.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:E499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
